--- a/biology/Zoologie/Crenicichla_reticulata/Crenicichla_reticulata.xlsx
+++ b/biology/Zoologie/Crenicichla_reticulata/Crenicichla_reticulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crenicichla reticulata est une espèce de poissons de la famille des Cichlidae. Elle est trouvée dans les bassins de l'Amazone, en Colombie, au Pérou et au Brésil, et de l'Essequibo en Guyana.
 </t>
